--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -24,9 +24,6 @@
     <t>Apartment</t>
   </si>
   <si>
-    <t>Tenant_ID</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Tenant Passport ID Number</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,40 +445,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="39">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75">

--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Apartment</t>
   </si>
@@ -52,20 +52,16 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Tenant Passport ID Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,15 +79,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="VNI-Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,21 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,237 +410,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="12" width="13.7109375" customWidth="1"/>
+    <col min="2" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75">
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75">
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -51,15 +51,16 @@
     <t>Deposit exchange rate</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Agreement Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -116,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,11 +125,14 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +417,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,8 +464,8 @@
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
@@ -473,8 +477,8 @@
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
@@ -486,8 +490,8 @@
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
@@ -499,8 +503,8 @@
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
@@ -512,8 +516,8 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -525,8 +529,8 @@
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -538,8 +542,8 @@
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -551,8 +555,8 @@
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -564,8 +568,8 @@
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -577,8 +581,8 @@
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -590,8 +594,8 @@
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
@@ -603,8 +607,8 @@
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -616,8 +620,8 @@
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>

--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Apartment</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Agreement Number</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>vnd</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
   </si>
 </sst>
 </file>
@@ -60,7 +72,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -82,12 +94,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,13 +149,39 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,209 +476,252 @@
     <col min="2" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44303</v>
+      </c>
+      <c r="E2" s="11">
+        <v>44609</v>
+      </c>
+      <c r="F2" s="12">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>100</v>
+      </c>
+      <c r="I2" s="17">
+        <v>44609</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="14">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>Apartment</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,48 +478,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="11">
         <v>35</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="14">
         <v>1</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">

--- a/excel_templates/leaseagrm-template.xlsx
+++ b/excel_templates/leaseagrm-template.xlsx
@@ -12,21 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Start date</t>
   </si>
   <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>Rent amount</t>
   </si>
   <si>
@@ -48,22 +45,79 @@
     <t>Deposit exchange rate</t>
   </si>
   <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01-Sept-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15, 
+Default: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USD
+Default: VND</t>
+  </si>
+  <si>
+    <t>23200
+Default: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 bikes, 1 TV</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Enter Data from row below, please fill all Compulsory columns otherwise row is not imported</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
     <t>Agreement Number</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>vnd</t>
-  </si>
-  <si>
-    <t>Tenant ID</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>37-U468-10Oct2020</t>
   </si>
 </sst>
 </file>
@@ -71,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +147,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,19 +174,31 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="4"/>
+        <bgColor theme="4" tint="-0.24994659260841701"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,11 +221,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,37 +260,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,266 +577,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44303</v>
-      </c>
-      <c r="E2" s="11">
-        <v>44609</v>
-      </c>
-      <c r="F2" s="12">
-        <v>9</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="11">
-        <v>100</v>
-      </c>
-      <c r="I2" s="17">
-        <v>44609</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="14">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13">
+        <v>43847</v>
+      </c>
+      <c r="F3" s="13">
+        <v>43847</v>
+      </c>
+      <c r="G3" s="10">
+        <v>12000000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>12000000</v>
+      </c>
+      <c r="I3" s="13">
+        <v>43847</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="1"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="1"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="1"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="1"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="16"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:N6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
